--- a/ERPReports/ERPReports/Areas/Reports/Templates/RMBreakdown_FGandSales_MonthYear_Template.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/RMBreakdown_FGandSales_MonthYear_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C# Projects\ERPREPORTS\ERPREPORTS\ERPReports\ERPReports\Areas\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sytelineerp803\ERPReports\Areas\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B9556-3409-4BD3-B317-92C646026DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EDA0B8-F530-47DC-BDD7-C342A174C629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{95856D42-4FFF-4DD0-98BD-883D94C4327F}"/>
   </bookViews>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -334,6 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,6 +344,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,49 +746,49 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8" t="s">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="9" t="s">
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1114,7 +1127,7 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="A7" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,221 +1136,393 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F6" s="7" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+    </row>
+    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="9" t="s">
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+    </row>
+    <row r="7" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AI7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
